--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2328308.730814507</v>
+        <v>-2331064.072893556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>33.72268182715949</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>220.0808052394255</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>91.58681398327178</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>110.7235246917283</v>
       </c>
       <c r="U4" t="n">
-        <v>10.70206005310378</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10.83342610871136</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.8355654476797</v>
@@ -950,19 +950,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>247.9136316492228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>285.3024959143913</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>101.205560573007</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>128.4059050024891</v>
       </c>
       <c r="F8" t="n">
-        <v>191.9951789649228</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -1187,7 +1187,7 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>44.25987452667724</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>160.4819041201066</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>121.0116223990573</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176109</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>164.8280908524519</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>126.6321535627879</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652567</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.7623722632314</v>
+        <v>502.3154316078739</v>
       </c>
       <c r="C2" t="n">
-        <v>51.79985532281972</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="D2" t="n">
-        <v>51.79985532281972</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="E2" t="n">
-        <v>51.79985532281972</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="F2" t="n">
-        <v>51.79985532281972</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
         <v>51.79985532281972</v>
@@ -4328,25 +4328,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>644.3837423617392</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>882.0065235799312</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.340726290105</v>
+        <v>1178.077090137534</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.81583252569</v>
+        <v>1483.55219637312</v>
       </c>
       <c r="O2" t="n">
-        <v>2112.839042145584</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2336.351904522572</v>
       </c>
       <c r="V2" t="n">
-        <v>1793.271146240432</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.967302564245</v>
+        <v>1652.520361908887</v>
       </c>
       <c r="X2" t="n">
-        <v>1197.501544303165</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.3622123273533</v>
+        <v>888.9152716719957</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4410,19 +4410,19 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>413.9668958230071</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>623.5577690758381</v>
+        <v>1041.052645433267</v>
       </c>
       <c r="M3" t="n">
-        <v>1264.580978695732</v>
+        <v>1304.992176928754</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
         <v>2316.738101020794</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.1216277296958</v>
+        <v>461.1610651495558</v>
       </c>
       <c r="C4" t="n">
-        <v>220.1216277296958</v>
+        <v>292.224882221649</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1216277296958</v>
+        <v>292.224882221649</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>144.3117886392559</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>144.3117886392559</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>144.3117886392559</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>144.3117886392559</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780056</v>
+        <v>1199.360365228064</v>
       </c>
       <c r="U4" t="n">
-        <v>958.3209278082038</v>
+        <v>1199.360365228064</v>
       </c>
       <c r="V4" t="n">
-        <v>958.3209278082038</v>
+        <v>1199.360365228064</v>
       </c>
       <c r="W4" t="n">
-        <v>668.9037577712432</v>
+        <v>909.9431951911033</v>
       </c>
       <c r="X4" t="n">
-        <v>440.9142068732259</v>
+        <v>681.953644293086</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.1216277296958</v>
+        <v>461.1610651495558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.223770668217</v>
+        <v>1616.991157897683</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.223770668217</v>
+        <v>1616.991157897683</v>
       </c>
       <c r="D5" t="n">
-        <v>943.9580720614667</v>
+        <v>1258.725459290933</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
@@ -4571,7 +4571,7 @@
         <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477387</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4598,19 +4598,19 @@
         <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675987</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.107338675987</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="X5" t="n">
-        <v>1552.641580414907</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.223770668217</v>
+        <v>2003.590997961805</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>573.7192355186005</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421437</v>
+        <v>871.0311846349152</v>
       </c>
       <c r="M6" t="n">
-        <v>1164.302981905901</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.3366732104416</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="C7" t="n">
-        <v>516.3366732104416</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>516.3366732104416</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>368.4235796280485</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452886</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.74339414542</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.74339414542</v>
+        <v>1169.364607489973</v>
       </c>
       <c r="W7" t="n">
-        <v>744.326224108459</v>
+        <v>1067.136768527339</v>
       </c>
       <c r="X7" t="n">
-        <v>516.3366732104416</v>
+        <v>1067.136768527339</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.3366732104416</v>
+        <v>846.3441893838093</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1351.029006502127</v>
+        <v>1231.1424762988</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.029006502127</v>
+        <v>862.179959358388</v>
       </c>
       <c r="D8" t="n">
-        <v>1351.029006502127</v>
+        <v>503.9142607516375</v>
       </c>
       <c r="E8" t="n">
-        <v>965.2407539038823</v>
+        <v>374.211326405689</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G8" t="n">
         <v>355.6243878970215</v>
@@ -4802,13 +4802,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4835,19 +4835,19 @@
         <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.76817854206</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.76817854206</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="X8" t="n">
-        <v>2127.76817854206</v>
+        <v>2007.881648338733</v>
       </c>
       <c r="Y8" t="n">
-        <v>1737.628846566248</v>
+        <v>1617.742316362921</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,22 +4884,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128337</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291485</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.302981905901</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1554.712543231644</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1815.732952862747</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.6234387014961</v>
+        <v>793.0225226884943</v>
       </c>
       <c r="C10" t="n">
-        <v>246.6234387014961</v>
+        <v>624.0863397605874</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50679928916037</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="E10" t="n">
-        <v>96.50679928916037</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="F10" t="n">
-        <v>96.50679928916037</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>96.50679928916037</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1227.599429701828</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>938.4816527122266</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>938.4816527122266</v>
+        <v>1484.880736699225</v>
       </c>
       <c r="W10" t="n">
-        <v>649.0644826752659</v>
+        <v>1195.463566662264</v>
       </c>
       <c r="X10" t="n">
-        <v>649.0644826752659</v>
+        <v>1195.463566662264</v>
       </c>
       <c r="Y10" t="n">
-        <v>428.2719035317358</v>
+        <v>974.670987518734</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433613</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.965271928681</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1051.964939354869</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,22 +5835,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>368.6178767709205</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>221.7279292730101</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>221.7279292730101</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,22 +6871,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,16 +7318,16 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247061</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175645</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.75711663939</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119781</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>191.1953109993611</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>176.3655913002457</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>91.51343072300259</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.7601900310589</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660668</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.890153866992402e-13</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>148.4266296017847</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200.7458546176081</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326896</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>74.65481927719935</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>309.1863928326896</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-9.590123560748166e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>331.5502099438481</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>314.9299404681865</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>129.1601634779875</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>23.19256251621443</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15.88259428919238</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833701</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>46.23519869957052</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.88156453658522</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>13.662559283436</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272276</v>
+        <v>31766.15265272275</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321417</v>
@@ -26323,34 +26323,34 @@
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
+        <v>40357.32998450032</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450031</v>
       </c>
-      <c r="G2" t="n">
-        <v>40357.3299845003</v>
-      </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450033</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53783.7099433389</v>
+        <v>53783.70994333889</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
@@ -26436,16 +26436,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478849</v>
       </c>
       <c r="J4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="K4" t="n">
         <v>14278.33979478851</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>14278.33979478852</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14278.33979478855</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
@@ -26454,7 +26454,7 @@
         <v>14278.33979478852</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1051045.568063006</v>
+        <v>-1051509.86485503</v>
       </c>
       <c r="C6" t="n">
         <v>-354260.1153834359</v>
@@ -26528,16 +26528,16 @@
         <v>-181495.7555935434</v>
       </c>
       <c r="E6" t="n">
-        <v>-567941.5481168526</v>
+        <v>-567976.2860422883</v>
       </c>
       <c r="F6" t="n">
-        <v>-67052.68037110186</v>
+        <v>-67087.41829653754</v>
       </c>
       <c r="G6" t="n">
-        <v>-67052.68037110189</v>
+        <v>-67087.41829653758</v>
       </c>
       <c r="H6" t="n">
-        <v>-67052.68037110186</v>
+        <v>-67087.41829653752</v>
       </c>
       <c r="I6" t="n">
         <v>-95818.08514912146</v>
@@ -26546,22 +26546,22 @@
         <v>-245804.3839815377</v>
       </c>
       <c r="K6" t="n">
-        <v>-76390.36715548977</v>
+        <v>-76390.3671554897</v>
       </c>
       <c r="L6" t="n">
-        <v>-76390.36715548976</v>
+        <v>-76390.36715548972</v>
       </c>
       <c r="M6" t="n">
         <v>-207274.824059725</v>
       </c>
       <c r="N6" t="n">
-        <v>-95818.08514912146</v>
+        <v>-95818.0851491215</v>
       </c>
       <c r="O6" t="n">
         <v>-76390.36715548972</v>
       </c>
       <c r="P6" t="n">
-        <v>-76390.36715548979</v>
+        <v>-76390.36715548974</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26741,7 +26741,7 @@
         <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67.00042960407524</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>111.443522940588</v>
       </c>
       <c r="U4" t="n">
-        <v>275.5432006847152</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>371.0969439635504</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>138.3243070068308</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.924103305314361</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>185.317437763584</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>253.5244650697727</v>
       </c>
       <c r="F8" t="n">
-        <v>214.8808667767887</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>102.9011856847697</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>91.65573920372142</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305614</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849414</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>354.6246161155181</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352464</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>378.6931946225723</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>214.1630188747996</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>460.4681428116963</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
         <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34942,7 +34942,7 @@
         <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755184</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873424</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>336.9735885949289</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>570.7518035997551</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>444.6607682593464</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>425.7606191871907</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124453992</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845518</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016081</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
